--- a/conf/excel/C_POI.xlsx
+++ b/conf/excel/C_POI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\File\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B7D8B-A62C-4B19-BA80-ADAB1E7E277A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEBD459-E18D-433F-8BEA-F65B95FCF495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2280" windowWidth="23580" windowHeight="10035" tabRatio="763" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="3585" windowWidth="21600" windowHeight="11385" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_POI.conf" sheetId="1" r:id="rId1"/>
@@ -8082,10 +8082,6 @@
     <t>category_code==990000</t>
   </si>
   <si>
-    <t>category_code:=^(2810|2880|2899);relate_aoi_area=""</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>category_code%=2811;relate_aoi_area=""</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8123,6 +8119,10 @@
   </si>
   <si>
     <t>belong_max_aoi_category%=24;master_category_code=241000;weighted_tag%=%教学楼;name=%楼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_code:=^(2810|2880|2899);relate_aoi_area!=""</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9281,7 +9281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D537"/>
   <sheetViews>
-    <sheetView topLeftCell="A517" workbookViewId="0">
+    <sheetView topLeftCell="A481" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -16491,8 +16491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16880,7 +16880,7 @@
     </row>
     <row r="38" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>930</v>
@@ -16968,7 +16968,7 @@
     </row>
     <row r="46" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="25" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B46" s="55" t="s">
         <v>1070</v>
@@ -17089,7 +17089,7 @@
     </row>
     <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="56" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B57" s="57" t="s">
         <v>197</v>
@@ -17298,7 +17298,7 @@
     </row>
     <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="62" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>787</v>
@@ -17309,7 +17309,7 @@
     </row>
     <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="62" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>787</v>
@@ -17518,7 +17518,7 @@
     </row>
     <row r="96" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="56" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B96" s="57" t="s">
         <v>197</v>
@@ -20860,7 +20860,7 @@
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="26" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>1900</v>
@@ -21999,7 +21999,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="100" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="102"/>
@@ -22059,13 +22059,13 @@
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="90" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B9" s="90" t="s">
         <v>2643</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="C9" s="90" t="s">
         <v>2644</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>2645</v>
       </c>
     </row>
   </sheetData>

--- a/conf/excel/C_POI.xlsx
+++ b/conf/excel/C_POI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA98E8C4-4891-4239-BCDC-64AB57A8401F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0AA50-5886-4C96-A4A0-31443EBFBB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_POI.conf" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_POI.conf'!$A$9:$D$537</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C_POI_1.conf'!$A$9:$C$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C_POI_1.conf'!$A$9:$C$140</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="2649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="2654">
   <si>
     <t>#</t>
   </si>
@@ -5610,9 +5610,6 @@
     <t>道路交叉口</t>
   </si>
   <si>
-    <t>catalog=01050104;name:=(大厦|商厦|楼|栋|座|弄|单元|病区|办公区|工作处)[·\-\(\)东南西北人行号a-zA-Z0-9]*(门|[出入]+口)</t>
-  </si>
-  <si>
     <t>catalog=01050104XX</t>
   </si>
   <si>
@@ -6064,9 +6061,6 @@
   </si>
   <si>
     <t>catalog:=^(01050105|01050101|01050D01)$;belong_min_aoi_id!=17133941202939916997;smart_scenic_id="";name:=动(植)?物(世界|园)(黑|棕)?熊(馆|区|园|山)?$</t>
-  </si>
-  <si>
-    <t>catalog=01050101;category_code=228000</t>
   </si>
   <si>
     <t>杂质子点</t>
@@ -8128,6 +8122,30 @@
   </si>
   <si>
     <t>#catalog!=01050A;category_num=22</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=010E11;relate_aoi_area=""</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>category_num=0;category_code=271020</t>
+  </si>
+  <si>
+    <t>机场候机楼</t>
+  </si>
+  <si>
+    <t>catalog=01050101;category_code=228000;wisdom_name=""</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=01FFFF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog=01050104;name:=(大厦|商厦|楼|栋|座|弄|单元|病区|办公区|工作处)[\-\(\)东南西北人行号a-zA-Z0-9]*(门|[出入]+口)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8135,7 +8153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8202,6 +8220,17 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -8678,7 +8707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9009,6 +9038,24 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9379,7 +9426,7 @@
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="77" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B10" s="78"/>
       <c r="C10" s="78" t="s">
@@ -9389,7 +9436,7 @@
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="77" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B11" s="78"/>
       <c r="C11" s="78" t="s">
@@ -9399,7 +9446,7 @@
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="80" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B12" s="81" t="s">
         <v>13</v>
@@ -9413,7 +9460,7 @@
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="80" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B13" s="81" t="s">
         <v>16</v>
@@ -9427,7 +9474,7 @@
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="80" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B14" s="81" t="s">
         <v>19</v>
@@ -9441,7 +9488,7 @@
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="80" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="B15" s="81" t="s">
         <v>22</v>
@@ -9455,7 +9502,7 @@
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="80" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B16" s="81" t="s">
         <v>19</v>
@@ -9469,7 +9516,7 @@
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="80" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="B17" s="81" t="s">
         <v>26</v>
@@ -9483,7 +9530,7 @@
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B18" s="81" t="s">
         <v>29</v>
@@ -9497,7 +9544,7 @@
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B19" s="81" t="s">
         <v>32</v>
@@ -9511,7 +9558,7 @@
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B20" s="81" t="s">
         <v>32</v>
@@ -9525,7 +9572,7 @@
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="80" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="B21" s="81" t="s">
         <v>36</v>
@@ -9539,7 +9586,7 @@
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="80" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B22" s="81" t="s">
         <v>39</v>
@@ -9553,7 +9600,7 @@
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="80" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B23" s="81" t="s">
         <v>42</v>
@@ -9567,7 +9614,7 @@
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="80" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B24" s="81" t="s">
         <v>39</v>
@@ -9581,7 +9628,7 @@
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="80" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="B25" s="81" t="s">
         <v>39</v>
@@ -9595,7 +9642,7 @@
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="80" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="B26" s="81" t="s">
         <v>47</v>
@@ -9609,7 +9656,7 @@
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="80" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B27" s="81" t="s">
         <v>50</v>
@@ -9623,7 +9670,7 @@
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="80" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="B28" s="81" t="s">
         <v>53</v>
@@ -9637,7 +9684,7 @@
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="80" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B29" s="81" t="s">
         <v>56</v>
@@ -9651,7 +9698,7 @@
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="80" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="B30" s="81" t="s">
         <v>59</v>
@@ -9665,7 +9712,7 @@
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="80" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B31" s="81" t="s">
         <v>19</v>
@@ -9679,7 +9726,7 @@
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="80" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="B32" s="81" t="s">
         <v>63</v>
@@ -9693,7 +9740,7 @@
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="80" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B33" s="81" t="s">
         <v>19</v>
@@ -9707,7 +9754,7 @@
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="80" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="B34" s="81" t="s">
         <v>39</v>
@@ -9721,7 +9768,7 @@
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="80" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="B35" s="81" t="s">
         <v>19</v>
@@ -9735,7 +9782,7 @@
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="80" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="B36" s="81" t="s">
         <v>19</v>
@@ -9749,7 +9796,7 @@
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="80" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B37" s="81" t="s">
         <v>19</v>
@@ -9763,7 +9810,7 @@
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="80" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="B38" s="81" t="s">
         <v>19</v>
@@ -9777,7 +9824,7 @@
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="80" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B39" s="81" t="s">
         <v>19</v>
@@ -9791,7 +9838,7 @@
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="80" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="B40" s="81" t="s">
         <v>19</v>
@@ -9805,7 +9852,7 @@
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="80" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="B41" s="81" t="s">
         <v>74</v>
@@ -9819,7 +9866,7 @@
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="80" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="B42" s="81" t="s">
         <v>77</v>
@@ -9833,7 +9880,7 @@
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="80" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B43" s="81" t="s">
         <v>80</v>
@@ -9847,7 +9894,7 @@
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="80" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B44" s="81" t="s">
         <v>19</v>
@@ -9861,7 +9908,7 @@
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="80" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="B45" s="81" t="s">
         <v>84</v>
@@ -9875,7 +9922,7 @@
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="80" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="B46" s="81" t="s">
         <v>87</v>
@@ -9889,7 +9936,7 @@
     </row>
     <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="80" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="B47" s="81" t="s">
         <v>53</v>
@@ -9903,7 +9950,7 @@
     </row>
     <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="77" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="B48" s="78"/>
       <c r="C48" s="78" t="s">
@@ -9913,7 +9960,7 @@
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="80" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B49" s="81" t="s">
         <v>92</v>
@@ -9927,7 +9974,7 @@
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="80" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="B50" s="81" t="s">
         <v>95</v>
@@ -9941,7 +9988,7 @@
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="80" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="B51" s="81" t="s">
         <v>98</v>
@@ -9955,7 +10002,7 @@
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="77" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="B52" s="78"/>
       <c r="C52" s="78" t="s">
@@ -9965,7 +10012,7 @@
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="80" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="B53" s="81" t="s">
         <v>102</v>
@@ -9979,7 +10026,7 @@
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="80" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="B54" s="81" t="s">
         <v>105</v>
@@ -9993,7 +10040,7 @@
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="80" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B55" s="81" t="s">
         <v>108</v>
@@ -10007,7 +10054,7 @@
     </row>
     <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="80" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B56" s="81" t="s">
         <v>111</v>
@@ -10021,7 +10068,7 @@
     </row>
     <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="80" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="B57" s="81" t="s">
         <v>105</v>
@@ -10035,7 +10082,7 @@
     </row>
     <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="77" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B58" s="78"/>
       <c r="C58" s="78" t="s">
@@ -10045,7 +10092,7 @@
     </row>
     <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="80" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="B59" s="81" t="s">
         <v>116</v>
@@ -10059,7 +10106,7 @@
     </row>
     <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="80" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="B60" s="81" t="s">
         <v>116</v>
@@ -10073,7 +10120,7 @@
     </row>
     <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="80" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B61" s="81" t="s">
         <v>116</v>
@@ -10087,7 +10134,7 @@
     </row>
     <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="80" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B62" s="81" t="s">
         <v>116</v>
@@ -10101,7 +10148,7 @@
     </row>
     <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="80" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="B63" s="81" t="s">
         <v>122</v>
@@ -10115,7 +10162,7 @@
     </row>
     <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="80" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="B64" s="81" t="s">
         <v>116</v>
@@ -10129,7 +10176,7 @@
     </row>
     <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="80" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="B65" s="81" t="s">
         <v>116</v>
@@ -10143,7 +10190,7 @@
     </row>
     <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="80" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="B66" s="81" t="s">
         <v>127</v>
@@ -10157,7 +10204,7 @@
     </row>
     <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="80" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="B67" s="81" t="s">
         <v>130</v>
@@ -10171,7 +10218,7 @@
     </row>
     <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="80" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B68" s="81" t="s">
         <v>133</v>
@@ -10185,7 +10232,7 @@
     </row>
     <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="80" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B69" s="81" t="s">
         <v>116</v>
@@ -10199,7 +10246,7 @@
     </row>
     <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="80" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B70" s="81" t="s">
         <v>116</v>
@@ -10213,7 +10260,7 @@
     </row>
     <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="80" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="B71" s="81" t="s">
         <v>116</v>
@@ -10227,7 +10274,7 @@
     </row>
     <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="80" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B72" s="81" t="s">
         <v>116</v>
@@ -10241,7 +10288,7 @@
     </row>
     <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="80" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B73" s="81" t="s">
         <v>140</v>
@@ -10255,7 +10302,7 @@
     </row>
     <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="80" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B74" s="81" t="s">
         <v>143</v>
@@ -10269,7 +10316,7 @@
     </row>
     <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="80" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B75" s="81" t="s">
         <v>146</v>
@@ -10283,7 +10330,7 @@
     </row>
     <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="80" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B76" s="81" t="s">
         <v>143</v>
@@ -10297,7 +10344,7 @@
     </row>
     <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="80" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="B77" s="81" t="s">
         <v>150</v>
@@ -10311,7 +10358,7 @@
     </row>
     <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="77" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="B78" s="78"/>
       <c r="C78" s="78" t="s">
@@ -10321,7 +10368,7 @@
     </row>
     <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="80" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B79" s="81" t="s">
         <v>154</v>
@@ -10335,7 +10382,7 @@
     </row>
     <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="80" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B80" s="81" t="s">
         <v>157</v>
@@ -10349,7 +10396,7 @@
     </row>
     <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="80" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="B81" s="81" t="s">
         <v>160</v>
@@ -10363,7 +10410,7 @@
     </row>
     <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="80" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B82" s="81" t="s">
         <v>154</v>
@@ -10377,7 +10424,7 @@
     </row>
     <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="77" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B83" s="78"/>
       <c r="C83" s="78" t="s">
@@ -10387,7 +10434,7 @@
     </row>
     <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="80" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B84" s="81" t="s">
         <v>165</v>
@@ -10401,7 +10448,7 @@
     </row>
     <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="80" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="B85" s="81" t="s">
         <v>168</v>
@@ -10415,7 +10462,7 @@
     </row>
     <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="80" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B86" s="81" t="s">
         <v>171</v>
@@ -10429,7 +10476,7 @@
     </row>
     <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="80" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="B87" s="81" t="s">
         <v>174</v>
@@ -10443,7 +10490,7 @@
     </row>
     <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="80" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B88" s="81" t="s">
         <v>177</v>
@@ -10457,7 +10504,7 @@
     </row>
     <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="80" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="B89" s="81" t="s">
         <v>180</v>
@@ -10471,7 +10518,7 @@
     </row>
     <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="80" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="B90" s="81" t="s">
         <v>183</v>
@@ -10485,7 +10532,7 @@
     </row>
     <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="80" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="B91" s="81" t="s">
         <v>186</v>
@@ -10499,7 +10546,7 @@
     </row>
     <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="80" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="B92" s="81" t="s">
         <v>189</v>
@@ -10513,7 +10560,7 @@
     </row>
     <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="80" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="B93" s="81" t="s">
         <v>192</v>
@@ -10527,7 +10574,7 @@
     </row>
     <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="80" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="B94" s="81" t="s">
         <v>192</v>
@@ -10541,7 +10588,7 @@
     </row>
     <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="83" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="B95" s="84"/>
       <c r="C95" s="84" t="s">
@@ -10551,7 +10598,7 @@
     </row>
     <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="17" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>197</v>
@@ -10565,7 +10612,7 @@
     </row>
     <row r="97" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="17" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>197</v>
@@ -10579,7 +10626,7 @@
     </row>
     <row r="98" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="17" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>201</v>
@@ -10593,7 +10640,7 @@
     </row>
     <row r="99" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>204</v>
@@ -10607,7 +10654,7 @@
     </row>
     <row r="100" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="B100" s="16" t="s">
         <v>207</v>
@@ -10621,7 +10668,7 @@
     </row>
     <row r="101" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="17" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>210</v>
@@ -10635,7 +10682,7 @@
     </row>
     <row r="102" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>213</v>
@@ -10649,7 +10696,7 @@
     </row>
     <row r="103" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="17" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>213</v>
@@ -10663,7 +10710,7 @@
     </row>
     <row r="104" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="17" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>213</v>
@@ -10677,7 +10724,7 @@
     </row>
     <row r="105" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="17" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>213</v>
@@ -10691,7 +10738,7 @@
     </row>
     <row r="106" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="17" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>213</v>
@@ -10705,7 +10752,7 @@
     </row>
     <row r="107" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="17" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>213</v>
@@ -10719,7 +10766,7 @@
     </row>
     <row r="108" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="17" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>213</v>
@@ -10733,7 +10780,7 @@
     </row>
     <row r="109" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="17" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>222</v>
@@ -10747,7 +10794,7 @@
     </row>
     <row r="110" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="17" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>222</v>
@@ -10761,7 +10808,7 @@
     </row>
     <row r="111" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="17" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>226</v>
@@ -10775,7 +10822,7 @@
     </row>
     <row r="112" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="17" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>229</v>
@@ -10789,7 +10836,7 @@
     </row>
     <row r="113" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="17" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>231</v>
@@ -10803,7 +10850,7 @@
     </row>
     <row r="114" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="17" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>231</v>
@@ -10817,7 +10864,7 @@
     </row>
     <row r="115" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="17" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>231</v>
@@ -10831,7 +10878,7 @@
     </row>
     <row r="116" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="17" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>231</v>
@@ -10845,7 +10892,7 @@
     </row>
     <row r="117" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="17" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>237</v>
@@ -10859,7 +10906,7 @@
     </row>
     <row r="118" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="17" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B118" s="16" t="s">
         <v>240</v>
@@ -10873,7 +10920,7 @@
     </row>
     <row r="119" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="17" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="B119" s="16" t="s">
         <v>243</v>
@@ -10887,7 +10934,7 @@
     </row>
     <row r="120" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="17" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B120" s="16" t="s">
         <v>245</v>
@@ -10901,7 +10948,7 @@
     </row>
     <row r="121" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="17" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>245</v>
@@ -10915,7 +10962,7 @@
     </row>
     <row r="122" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="17" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B122" s="16" t="s">
         <v>245</v>
@@ -10929,7 +10976,7 @@
     </row>
     <row r="123" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="17" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B123" s="16" t="s">
         <v>226</v>
@@ -10943,7 +10990,7 @@
     </row>
     <row r="124" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="54" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B124" s="28" t="s">
         <v>250</v>
@@ -10957,7 +11004,7 @@
     </row>
     <row r="125" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="17" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>210</v>
@@ -10971,7 +11018,7 @@
     </row>
     <row r="126" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="17" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B126" s="16" t="s">
         <v>254</v>
@@ -10985,7 +11032,7 @@
     </row>
     <row r="127" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="17" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B127" s="16" t="s">
         <v>240</v>
@@ -10999,7 +11046,7 @@
     </row>
     <row r="128" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="17" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B128" s="16" t="s">
         <v>257</v>
@@ -11013,7 +11060,7 @@
     </row>
     <row r="129" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="17" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="B129" s="16" t="s">
         <v>260</v>
@@ -11027,7 +11074,7 @@
     </row>
     <row r="130" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="17" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B130" s="16" t="s">
         <v>263</v>
@@ -11041,7 +11088,7 @@
     </row>
     <row r="131" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="17" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>266</v>
@@ -11055,7 +11102,7 @@
     </row>
     <row r="132" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="17" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B132" s="16" t="s">
         <v>269</v>
@@ -11069,7 +11116,7 @@
     </row>
     <row r="133" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="17" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>226</v>
@@ -11083,7 +11130,7 @@
     </row>
     <row r="134" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="17" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B134" s="16" t="s">
         <v>226</v>
@@ -11097,7 +11144,7 @@
     </row>
     <row r="135" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="17" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>226</v>
@@ -11111,7 +11158,7 @@
     </row>
     <row r="136" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="17" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B136" s="16" t="s">
         <v>226</v>
@@ -11125,7 +11172,7 @@
     </row>
     <row r="137" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="17" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="B137" s="16" t="s">
         <v>226</v>
@@ -11139,7 +11186,7 @@
     </row>
     <row r="138" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="17" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>226</v>
@@ -11153,7 +11200,7 @@
     </row>
     <row r="139" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="17" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>226</v>
@@ -11167,7 +11214,7 @@
     </row>
     <row r="140" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="17" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>226</v>
@@ -11181,7 +11228,7 @@
     </row>
     <row r="141" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="17" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="B141" s="16" t="s">
         <v>226</v>
@@ -11195,7 +11242,7 @@
     </row>
     <row r="142" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="17" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B142" s="16" t="s">
         <v>226</v>
@@ -11209,7 +11256,7 @@
     </row>
     <row r="143" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="17" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="B143" s="16" t="s">
         <v>226</v>
@@ -11223,7 +11270,7 @@
     </row>
     <row r="144" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="17" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>226</v>
@@ -11237,7 +11284,7 @@
     </row>
     <row r="145" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="17" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>226</v>
@@ -11251,7 +11298,7 @@
     </row>
     <row r="146" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="17" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B146" s="16" t="s">
         <v>226</v>
@@ -11265,7 +11312,7 @@
     </row>
     <row r="147" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A147" s="17" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B147" s="16" t="s">
         <v>226</v>
@@ -11279,7 +11326,7 @@
     </row>
     <row r="148" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A148" s="17" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B148" s="16" t="s">
         <v>226</v>
@@ -11293,7 +11340,7 @@
     </row>
     <row r="149" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A149" s="17" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B149" s="16" t="s">
         <v>226</v>
@@ -11307,7 +11354,7 @@
     </row>
     <row r="150" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A150" s="17" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B150" s="16" t="s">
         <v>226</v>
@@ -11321,7 +11368,7 @@
     </row>
     <row r="151" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A151" s="12" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13" t="s">
@@ -11331,7 +11378,7 @@
     </row>
     <row r="152" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="17" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="B152" s="16" t="s">
         <v>291</v>
@@ -11345,7 +11392,7 @@
     </row>
     <row r="153" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="13" t="s">
@@ -11355,7 +11402,7 @@
     </row>
     <row r="154" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="17" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B154" s="16" t="s">
         <v>295</v>
@@ -11369,7 +11416,7 @@
     </row>
     <row r="155" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="17" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B155" s="16" t="s">
         <v>295</v>
@@ -11383,7 +11430,7 @@
     </row>
     <row r="156" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="17" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="B156" s="16" t="s">
         <v>295</v>
@@ -11397,7 +11444,7 @@
     </row>
     <row r="157" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A157" s="17" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>295</v>
@@ -11411,7 +11458,7 @@
     </row>
     <row r="158" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="17" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B158" s="16" t="s">
         <v>301</v>
@@ -11425,7 +11472,7 @@
     </row>
     <row r="159" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="17" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>295</v>
@@ -11439,7 +11486,7 @@
     </row>
     <row r="160" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="12" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13" t="s">
@@ -11449,7 +11496,7 @@
     </row>
     <row r="161" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="17" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B161" s="16" t="s">
         <v>306</v>
@@ -11463,7 +11510,7 @@
     </row>
     <row r="162" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="17" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B162" s="16" t="s">
         <v>309</v>
@@ -11477,7 +11524,7 @@
     </row>
     <row r="163" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="17" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B163" s="16" t="s">
         <v>312</v>
@@ -11491,7 +11538,7 @@
     </row>
     <row r="164" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="17" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B164" s="16" t="s">
         <v>312</v>
@@ -11505,7 +11552,7 @@
     </row>
     <row r="165" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="17" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B165" s="16" t="s">
         <v>316</v>
@@ -11519,7 +11566,7 @@
     </row>
     <row r="166" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A166" s="12" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="13" t="s">
@@ -11529,7 +11576,7 @@
     </row>
     <row r="167" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A167" s="17" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B167" s="16" t="s">
         <v>320</v>
@@ -11543,7 +11590,7 @@
     </row>
     <row r="168" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A168" s="17" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>323</v>
@@ -11557,7 +11604,7 @@
     </row>
     <row r="169" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A169" s="17" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B169" s="16" t="s">
         <v>326</v>
@@ -11571,7 +11618,7 @@
     </row>
     <row r="170" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A170" s="17" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B170" s="16" t="s">
         <v>329</v>
@@ -11585,7 +11632,7 @@
     </row>
     <row r="171" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A171" s="17" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>332</v>
@@ -11599,7 +11646,7 @@
     </row>
     <row r="172" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A172" s="17" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B172" s="16" t="s">
         <v>335</v>
@@ -11613,7 +11660,7 @@
     </row>
     <row r="173" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A173" s="17" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B173" s="16" t="s">
         <v>338</v>
@@ -11627,7 +11674,7 @@
     </row>
     <row r="174" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A174" s="17" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B174" s="16" t="s">
         <v>341</v>
@@ -11641,7 +11688,7 @@
     </row>
     <row r="175" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A175" s="17" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B175" s="16" t="s">
         <v>344</v>
@@ -11655,7 +11702,7 @@
     </row>
     <row r="176" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A176" s="17" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B176" s="16" t="s">
         <v>347</v>
@@ -11669,7 +11716,7 @@
     </row>
     <row r="177" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A177" s="17" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>350</v>
@@ -11683,7 +11730,7 @@
     </row>
     <row r="178" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A178" s="17" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B178" s="16" t="s">
         <v>353</v>
@@ -11697,7 +11744,7 @@
     </row>
     <row r="179" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A179" s="17" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="B179" s="16" t="s">
         <v>353</v>
@@ -11711,7 +11758,7 @@
     </row>
     <row r="180" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A180" s="17" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B180" s="16" t="s">
         <v>353</v>
@@ -11725,7 +11772,7 @@
     </row>
     <row r="181" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A181" s="17" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B181" s="16" t="s">
         <v>358</v>
@@ -11739,7 +11786,7 @@
     </row>
     <row r="182" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A182" s="12" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="13" t="s">
@@ -11749,7 +11796,7 @@
     </row>
     <row r="183" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A183" s="17" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B183" s="16" t="s">
         <v>362</v>
@@ -11763,7 +11810,7 @@
     </row>
     <row r="184" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A184" s="17" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B184" s="16" t="s">
         <v>362</v>
@@ -11777,7 +11824,7 @@
     </row>
     <row r="185" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A185" s="17" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B185" s="16" t="s">
         <v>366</v>
@@ -11791,7 +11838,7 @@
     </row>
     <row r="186" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A186" s="12" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="13" t="s">
@@ -11801,7 +11848,7 @@
     </row>
     <row r="187" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A187" s="17" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B187" s="16" t="s">
         <v>370</v>
@@ -11815,7 +11862,7 @@
     </row>
     <row r="188" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A188" s="17" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B188" s="16" t="s">
         <v>370</v>
@@ -11829,7 +11876,7 @@
     </row>
     <row r="189" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="17" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B189" s="16" t="s">
         <v>370</v>
@@ -11843,7 +11890,7 @@
     </row>
     <row r="190" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A190" s="17" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B190" s="16" t="s">
         <v>375</v>
@@ -11857,7 +11904,7 @@
     </row>
     <row r="191" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A191" s="17" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="B191" s="16" t="s">
         <v>378</v>
@@ -11871,7 +11918,7 @@
     </row>
     <row r="192" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="17" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B192" s="16" t="s">
         <v>370</v>
@@ -11885,7 +11932,7 @@
     </row>
     <row r="193" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A193" s="17" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B193" s="16" t="s">
         <v>382</v>
@@ -11899,7 +11946,7 @@
     </row>
     <row r="194" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A194" s="17" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B194" s="16" t="s">
         <v>370</v>
@@ -11913,7 +11960,7 @@
     </row>
     <row r="195" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A195" s="17" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B195" s="16" t="s">
         <v>386</v>
@@ -11927,7 +11974,7 @@
     </row>
     <row r="196" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A196" s="12" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="13" t="s">
@@ -11937,7 +11984,7 @@
     </row>
     <row r="197" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A197" s="17" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="B197" s="16" t="s">
         <v>390</v>
@@ -11951,7 +11998,7 @@
     </row>
     <row r="198" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A198" s="17" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B198" s="16" t="s">
         <v>390</v>
@@ -11965,7 +12012,7 @@
     </row>
     <row r="199" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="17" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B199" s="16" t="s">
         <v>390</v>
@@ -11979,7 +12026,7 @@
     </row>
     <row r="200" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A200" s="17" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B200" s="16" t="s">
         <v>390</v>
@@ -11993,7 +12040,7 @@
     </row>
     <row r="201" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A201" s="17" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>396</v>
@@ -12007,7 +12054,7 @@
     </row>
     <row r="202" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="17" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B202" s="16" t="s">
         <v>353</v>
@@ -12021,7 +12068,7 @@
     </row>
     <row r="203" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A203" s="17" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B203" s="16" t="s">
         <v>400</v>
@@ -12035,7 +12082,7 @@
     </row>
     <row r="204" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A204" s="17" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B204" s="16" t="s">
         <v>353</v>
@@ -12049,7 +12096,7 @@
     </row>
     <row r="205" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A205" s="17" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B205" s="16" t="s">
         <v>404</v>
@@ -12063,7 +12110,7 @@
     </row>
     <row r="206" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A206" s="12" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B206" s="13"/>
       <c r="C206" s="13" t="s">
@@ -12073,7 +12120,7 @@
     </row>
     <row r="207" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A207" s="17" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>408</v>
@@ -12087,7 +12134,7 @@
     </row>
     <row r="208" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A208" s="17" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B208" s="16" t="s">
         <v>353</v>
@@ -12101,7 +12148,7 @@
     </row>
     <row r="209" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A209" s="17" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="B209" s="16" t="s">
         <v>353</v>
@@ -12115,7 +12162,7 @@
     </row>
     <row r="210" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A210" s="17" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B210" s="16" t="s">
         <v>353</v>
@@ -12129,7 +12176,7 @@
     </row>
     <row r="211" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A211" s="17" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="B211" s="16" t="s">
         <v>408</v>
@@ -12143,7 +12190,7 @@
     </row>
     <row r="212" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A212" s="17" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B212" s="16" t="s">
         <v>353</v>
@@ -12157,7 +12204,7 @@
     </row>
     <row r="213" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A213" s="17" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B213" s="16" t="s">
         <v>353</v>
@@ -12171,7 +12218,7 @@
     </row>
     <row r="214" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A214" s="17" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B214" s="16" t="s">
         <v>353</v>
@@ -12185,7 +12232,7 @@
     </row>
     <row r="215" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A215" s="17" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="B215" s="16" t="s">
         <v>353</v>
@@ -12199,7 +12246,7 @@
     </row>
     <row r="216" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A216" s="17" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B216" s="16" t="s">
         <v>353</v>
@@ -12213,7 +12260,7 @@
     </row>
     <row r="217" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A217" s="17" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B217" s="16" t="s">
         <v>353</v>
@@ -12227,7 +12274,7 @@
     </row>
     <row r="218" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A218" s="17" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B218" s="16" t="s">
         <v>353</v>
@@ -12241,7 +12288,7 @@
     </row>
     <row r="219" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A219" s="17" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B219" s="16" t="s">
         <v>353</v>
@@ -12255,7 +12302,7 @@
     </row>
     <row r="220" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A220" s="17" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B220" s="16" t="s">
         <v>353</v>
@@ -12269,7 +12316,7 @@
     </row>
     <row r="221" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A221" s="17" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="B221" s="16" t="s">
         <v>353</v>
@@ -12283,7 +12330,7 @@
     </row>
     <row r="222" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A222" s="12" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="13" t="s">
@@ -12293,7 +12340,7 @@
     </row>
     <row r="223" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A223" s="17" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>425</v>
@@ -12307,7 +12354,7 @@
     </row>
     <row r="224" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A224" s="17" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="B224" s="16" t="s">
         <v>428</v>
@@ -12321,7 +12368,7 @@
     </row>
     <row r="225" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A225" s="17" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="B225" s="16" t="s">
         <v>431</v>
@@ -12335,7 +12382,7 @@
     </row>
     <row r="226" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="17" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="B226" s="16" t="s">
         <v>434</v>
@@ -12349,7 +12396,7 @@
     </row>
     <row r="227" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A227" s="17" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B227" s="16" t="s">
         <v>437</v>
@@ -12363,7 +12410,7 @@
     </row>
     <row r="228" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A228" s="17" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B228" s="16" t="s">
         <v>146</v>
@@ -12377,7 +12424,7 @@
     </row>
     <row r="229" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A229" s="17" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B229" s="16" t="s">
         <v>441</v>
@@ -12391,7 +12438,7 @@
     </row>
     <row r="230" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A230" s="12" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B230" s="13"/>
       <c r="C230" s="13" t="s">
@@ -12401,7 +12448,7 @@
     </row>
     <row r="231" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A231" s="17" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B231" s="16" t="s">
         <v>445</v>
@@ -12415,7 +12462,7 @@
     </row>
     <row r="232" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A232" s="17" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B232" s="16" t="s">
         <v>445</v>
@@ -12429,7 +12476,7 @@
     </row>
     <row r="233" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A233" s="17" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B233" s="16" t="s">
         <v>445</v>
@@ -12443,7 +12490,7 @@
     </row>
     <row r="234" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A234" s="17" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B234" s="16" t="s">
         <v>450</v>
@@ -12457,7 +12504,7 @@
     </row>
     <row r="235" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A235" s="12" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="13" t="s">
@@ -12467,7 +12514,7 @@
     </row>
     <row r="236" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A236" s="17" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B236" s="16" t="s">
         <v>454</v>
@@ -12481,7 +12528,7 @@
     </row>
     <row r="237" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A237" s="17" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B237" s="16" t="s">
         <v>457</v>
@@ -12495,7 +12542,7 @@
     </row>
     <row r="238" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A238" s="17" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B238" s="16" t="s">
         <v>460</v>
@@ -12509,7 +12556,7 @@
     </row>
     <row r="239" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A239" s="17" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B239" s="16" t="s">
         <v>457</v>
@@ -12523,7 +12570,7 @@
     </row>
     <row r="240" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A240" s="17" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="B240" s="16" t="s">
         <v>464</v>
@@ -12537,7 +12584,7 @@
     </row>
     <row r="241" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A241" s="17" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B241" s="16" t="s">
         <v>457</v>
@@ -12551,7 +12598,7 @@
     </row>
     <row r="242" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A242" s="17" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B242" s="16" t="s">
         <v>457</v>
@@ -12565,7 +12612,7 @@
     </row>
     <row r="243" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A243" s="12" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B243" s="13"/>
       <c r="C243" s="13" t="s">
@@ -12575,7 +12622,7 @@
     </row>
     <row r="244" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A244" s="17" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B244" s="16" t="s">
         <v>470</v>
@@ -12589,7 +12636,7 @@
     </row>
     <row r="245" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A245" s="17" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B245" s="16" t="s">
         <v>473</v>
@@ -12603,7 +12650,7 @@
     </row>
     <row r="246" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A246" s="17" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B246" s="16" t="s">
         <v>473</v>
@@ -12617,7 +12664,7 @@
     </row>
     <row r="247" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A247" s="17" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B247" s="16" t="s">
         <v>362</v>
@@ -12631,7 +12678,7 @@
     </row>
     <row r="248" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A248" s="17" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B248" s="16" t="s">
         <v>473</v>
@@ -12645,7 +12692,7 @@
     </row>
     <row r="249" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A249" s="17" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B249" s="16" t="s">
         <v>479</v>
@@ -12659,7 +12706,7 @@
     </row>
     <row r="250" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A250" s="17" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="B250" s="16" t="s">
         <v>482</v>
@@ -12673,7 +12720,7 @@
     </row>
     <row r="251" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A251" s="17" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B251" s="16" t="s">
         <v>457</v>
@@ -12687,7 +12734,7 @@
     </row>
     <row r="252" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A252" s="17" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>457</v>
@@ -12701,7 +12748,7 @@
     </row>
     <row r="253" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A253" s="17" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B253" s="16" t="s">
         <v>457</v>
@@ -12715,7 +12762,7 @@
     </row>
     <row r="254" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A254" s="17" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B254" s="16" t="s">
         <v>457</v>
@@ -12729,7 +12776,7 @@
     </row>
     <row r="255" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A255" s="12" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B255" s="13"/>
       <c r="C255" s="13" t="s">
@@ -12739,7 +12786,7 @@
     </row>
     <row r="256" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A256" s="17" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="B256" s="16" t="s">
         <v>490</v>
@@ -12753,7 +12800,7 @@
     </row>
     <row r="257" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A257" s="17" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B257" s="16" t="s">
         <v>493</v>
@@ -12767,7 +12814,7 @@
     </row>
     <row r="258" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A258" s="17" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B258" s="16" t="s">
         <v>496</v>
@@ -12781,7 +12828,7 @@
     </row>
     <row r="259" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A259" s="17" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B259" s="16" t="s">
         <v>499</v>
@@ -12795,7 +12842,7 @@
     </row>
     <row r="260" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A260" s="17" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B260" s="16" t="s">
         <v>502</v>
@@ -12809,7 +12856,7 @@
     </row>
     <row r="261" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A261" s="17" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B261" s="16" t="s">
         <v>505</v>
@@ -12823,7 +12870,7 @@
     </row>
     <row r="262" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A262" s="17" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B262" s="16" t="s">
         <v>508</v>
@@ -12837,7 +12884,7 @@
     </row>
     <row r="263" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A263" s="17" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B263" s="16" t="s">
         <v>511</v>
@@ -12851,7 +12898,7 @@
     </row>
     <row r="264" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A264" s="17" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="B264" s="16" t="s">
         <v>514</v>
@@ -12865,7 +12912,7 @@
     </row>
     <row r="265" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A265" s="17" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B265" s="16" t="s">
         <v>464</v>
@@ -12879,7 +12926,7 @@
     </row>
     <row r="266" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A266" s="17" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="B266" s="16" t="s">
         <v>464</v>
@@ -12893,7 +12940,7 @@
     </row>
     <row r="267" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A267" s="17" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="B267" s="16" t="s">
         <v>464</v>
@@ -12907,7 +12954,7 @@
     </row>
     <row r="268" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A268" s="17" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="B268" s="16" t="s">
         <v>520</v>
@@ -12921,7 +12968,7 @@
     </row>
     <row r="269" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A269" s="17" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="B269" s="16" t="s">
         <v>523</v>
@@ -12935,7 +12982,7 @@
     </row>
     <row r="270" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A270" s="17" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="B270" s="16" t="s">
         <v>526</v>
@@ -12949,7 +12996,7 @@
     </row>
     <row r="271" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A271" s="17" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="B271" s="16" t="s">
         <v>529</v>
@@ -12963,7 +13010,7 @@
     </row>
     <row r="272" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A272" s="17" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B272" s="16" t="s">
         <v>532</v>
@@ -12977,7 +13024,7 @@
     </row>
     <row r="273" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A273" s="17" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B273" s="16" t="s">
         <v>535</v>
@@ -12991,7 +13038,7 @@
     </row>
     <row r="274" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A274" s="17" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="B274" s="16" t="s">
         <v>538</v>
@@ -13005,7 +13052,7 @@
     </row>
     <row r="275" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A275" s="17" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="B275" s="16" t="s">
         <v>541</v>
@@ -13019,7 +13066,7 @@
     </row>
     <row r="276" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A276" s="17" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B276" s="16" t="s">
         <v>464</v>
@@ -13033,7 +13080,7 @@
     </row>
     <row r="277" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A277" s="17" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="B277" s="16" t="s">
         <v>464</v>
@@ -13047,7 +13094,7 @@
     </row>
     <row r="278" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A278" s="17" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B278" s="16" t="s">
         <v>464</v>
@@ -13061,7 +13108,7 @@
     </row>
     <row r="279" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A279" s="12" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B279" s="13"/>
       <c r="C279" s="13" t="s">
@@ -13071,7 +13118,7 @@
     </row>
     <row r="280" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A280" s="12" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B280" s="13"/>
       <c r="C280" s="13" t="s">
@@ -13081,7 +13128,7 @@
     </row>
     <row r="281" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A281" s="17" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B281" s="16" t="s">
         <v>549</v>
@@ -13095,7 +13142,7 @@
     </row>
     <row r="282" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A282" s="17" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B282" s="16" t="s">
         <v>552</v>
@@ -13109,7 +13156,7 @@
     </row>
     <row r="283" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A283" s="17" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B283" s="16" t="s">
         <v>555</v>
@@ -13123,7 +13170,7 @@
     </row>
     <row r="284" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A284" s="17" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B284" s="16" t="s">
         <v>558</v>
@@ -13137,7 +13184,7 @@
     </row>
     <row r="285" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A285" s="17" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="B285" s="16" t="s">
         <v>561</v>
@@ -13151,7 +13198,7 @@
     </row>
     <row r="286" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A286" s="17" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B286" s="16" t="s">
         <v>564</v>
@@ -13165,7 +13212,7 @@
     </row>
     <row r="287" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A287" s="17" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B287" s="16" t="s">
         <v>567</v>
@@ -13179,7 +13226,7 @@
     </row>
     <row r="288" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A288" s="17" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B288" s="16" t="s">
         <v>567</v>
@@ -13193,7 +13240,7 @@
     </row>
     <row r="289" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A289" s="17" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B289" s="16" t="s">
         <v>567</v>
@@ -13207,7 +13254,7 @@
     </row>
     <row r="290" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A290" s="17" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B290" s="16" t="s">
         <v>567</v>
@@ -13221,7 +13268,7 @@
     </row>
     <row r="291" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A291" s="17" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="B291" s="16" t="s">
         <v>567</v>
@@ -13235,7 +13282,7 @@
     </row>
     <row r="292" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A292" s="17" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B292" s="16" t="s">
         <v>567</v>
@@ -13249,7 +13296,7 @@
     </row>
     <row r="293" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A293" s="17" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B293" s="16" t="s">
         <v>575</v>
@@ -13263,7 +13310,7 @@
     </row>
     <row r="294" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A294" s="17" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B294" s="16" t="s">
         <v>575</v>
@@ -13277,7 +13324,7 @@
     </row>
     <row r="295" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A295" s="12" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="B295" s="13"/>
       <c r="C295" s="13" t="s">
@@ -13287,7 +13334,7 @@
     </row>
     <row r="296" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A296" s="17" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B296" s="16" t="s">
         <v>263</v>
@@ -13301,7 +13348,7 @@
     </row>
     <row r="297" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A297" s="17" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B297" s="16" t="s">
         <v>263</v>
@@ -13315,7 +13362,7 @@
     </row>
     <row r="298" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A298" s="17" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B298" s="16" t="s">
         <v>263</v>
@@ -13329,7 +13376,7 @@
     </row>
     <row r="299" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A299" s="17" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="B299" s="16" t="s">
         <v>263</v>
@@ -13343,7 +13390,7 @@
     </row>
     <row r="300" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A300" s="17" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="B300" s="16" t="s">
         <v>584</v>
@@ -13357,7 +13404,7 @@
     </row>
     <row r="301" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A301" s="17" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="B301" s="16" t="s">
         <v>587</v>
@@ -13371,7 +13418,7 @@
     </row>
     <row r="302" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A302" s="17" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B302" s="16" t="s">
         <v>590</v>
@@ -13385,7 +13432,7 @@
     </row>
     <row r="303" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A303" s="17" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="B303" s="16" t="s">
         <v>590</v>
@@ -13399,7 +13446,7 @@
     </row>
     <row r="304" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A304" s="17" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B304" s="16" t="s">
         <v>594</v>
@@ -13413,7 +13460,7 @@
     </row>
     <row r="305" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A305" s="17" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B305" s="16" t="s">
         <v>594</v>
@@ -13427,7 +13474,7 @@
     </row>
     <row r="306" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A306" s="17" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B306" s="16" t="s">
         <v>598</v>
@@ -13441,7 +13488,7 @@
     </row>
     <row r="307" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A307" s="17" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B307" s="16" t="s">
         <v>575</v>
@@ -13455,7 +13502,7 @@
     </row>
     <row r="308" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A308" s="17" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B308" s="16" t="s">
         <v>602</v>
@@ -13469,7 +13516,7 @@
     </row>
     <row r="309" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A309" s="17" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="B309" s="16" t="s">
         <v>594</v>
@@ -13483,7 +13530,7 @@
     </row>
     <row r="310" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A310" s="12" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="B310" s="13"/>
       <c r="C310" s="13" t="s">
@@ -13493,7 +13540,7 @@
     </row>
     <row r="311" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A311" s="17" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="B311" s="16" t="s">
         <v>607</v>
@@ -13507,7 +13554,7 @@
     </row>
     <row r="312" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A312" s="12" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="B312" s="13"/>
       <c r="C312" s="13" t="s">
@@ -13517,7 +13564,7 @@
     </row>
     <row r="313" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A313" s="17" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="B313" s="16" t="s">
         <v>611</v>
@@ -13531,7 +13578,7 @@
     </row>
     <row r="314" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A314" s="17" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="B314" s="16" t="s">
         <v>614</v>
@@ -13545,7 +13592,7 @@
     </row>
     <row r="315" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A315" s="17" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="B315" s="16" t="s">
         <v>617</v>
@@ -13559,7 +13606,7 @@
     </row>
     <row r="316" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A316" s="17" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="B316" s="16" t="s">
         <v>617</v>
@@ -13573,7 +13620,7 @@
     </row>
     <row r="317" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A317" s="17" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="B317" s="16" t="s">
         <v>621</v>
@@ -13587,7 +13634,7 @@
     </row>
     <row r="318" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A318" s="17" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="B318" s="16" t="s">
         <v>621</v>
@@ -13601,7 +13648,7 @@
     </row>
     <row r="319" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A319" s="17" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="B319" s="16" t="s">
         <v>625</v>
@@ -13615,7 +13662,7 @@
     </row>
     <row r="320" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A320" s="17" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="B320" s="16" t="s">
         <v>621</v>
@@ -13629,7 +13676,7 @@
     </row>
     <row r="321" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A321" s="17" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="B321" s="16" t="s">
         <v>629</v>
@@ -13643,7 +13690,7 @@
     </row>
     <row r="322" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A322" s="17" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="B322" s="16" t="s">
         <v>629</v>
@@ -13657,7 +13704,7 @@
     </row>
     <row r="323" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A323" s="17" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="B323" s="16" t="s">
         <v>633</v>
@@ -13671,7 +13718,7 @@
     </row>
     <row r="324" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A324" s="17" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="B324" s="16" t="s">
         <v>636</v>
@@ -13685,7 +13732,7 @@
     </row>
     <row r="325" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A325" s="17" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="B325" s="16" t="s">
         <v>621</v>
@@ -13699,7 +13746,7 @@
     </row>
     <row r="326" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A326" s="17" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="B326" s="16" t="s">
         <v>640</v>
@@ -13713,7 +13760,7 @@
     </row>
     <row r="327" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A327" s="17" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="B327" s="16" t="s">
         <v>643</v>
@@ -13727,7 +13774,7 @@
     </row>
     <row r="328" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A328" s="17" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="B328" s="16" t="s">
         <v>646</v>
@@ -13741,7 +13788,7 @@
     </row>
     <row r="329" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A329" s="17" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="B329" s="16" t="s">
         <v>649</v>
@@ -13755,7 +13802,7 @@
     </row>
     <row r="330" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A330" s="17" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="B330" s="16" t="s">
         <v>652</v>
@@ -13769,7 +13816,7 @@
     </row>
     <row r="331" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A331" s="12" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="B331" s="13"/>
       <c r="C331" s="13" t="s">
@@ -13779,7 +13826,7 @@
     </row>
     <row r="332" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A332" s="17" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="B332" s="16" t="s">
         <v>656</v>
@@ -13793,7 +13840,7 @@
     </row>
     <row r="333" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A333" s="17" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="B333" s="16" t="s">
         <v>656</v>
@@ -13807,7 +13854,7 @@
     </row>
     <row r="334" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A334" s="17" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="B334" s="16" t="s">
         <v>656</v>
@@ -13821,7 +13868,7 @@
     </row>
     <row r="335" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A335" s="17" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="B335" s="16" t="s">
         <v>656</v>
@@ -13835,7 +13882,7 @@
     </row>
     <row r="336" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A336" s="17" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="B336" s="16" t="s">
         <v>656</v>
@@ -13849,7 +13896,7 @@
     </row>
     <row r="337" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A337" s="17" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="B337" s="16" t="s">
         <v>656</v>
@@ -13863,7 +13910,7 @@
     </row>
     <row r="338" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A338" s="17" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="B338" s="16" t="s">
         <v>656</v>
@@ -13877,7 +13924,7 @@
     </row>
     <row r="339" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A339" s="17" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="B339" s="16" t="s">
         <v>656</v>
@@ -13891,7 +13938,7 @@
     </row>
     <row r="340" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A340" s="17" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="B340" s="16" t="s">
         <v>656</v>
@@ -13905,7 +13952,7 @@
     </row>
     <row r="341" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A341" s="17" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="B341" s="16" t="s">
         <v>656</v>
@@ -13919,7 +13966,7 @@
     </row>
     <row r="342" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A342" s="17" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="B342" s="16" t="s">
         <v>656</v>
@@ -13933,7 +13980,7 @@
     </row>
     <row r="343" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A343" s="17" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="B343" s="16" t="s">
         <v>656</v>
@@ -13947,7 +13994,7 @@
     </row>
     <row r="344" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A344" s="17" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="B344" s="16" t="s">
         <v>656</v>
@@ -13961,7 +14008,7 @@
     </row>
     <row r="345" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A345" s="17" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B345" s="16" t="s">
         <v>656</v>
@@ -13975,7 +14022,7 @@
     </row>
     <row r="346" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A346" s="17" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B346" s="16" t="s">
         <v>652</v>
@@ -13989,7 +14036,7 @@
     </row>
     <row r="347" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A347" s="12" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B347" s="13"/>
       <c r="C347" s="13" t="s">
@@ -13999,7 +14046,7 @@
     </row>
     <row r="348" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A348" s="17" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="B348" s="16" t="s">
         <v>674</v>
@@ -14013,7 +14060,7 @@
     </row>
     <row r="349" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A349" s="17" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B349" s="16" t="s">
         <v>677</v>
@@ -14027,7 +14074,7 @@
     </row>
     <row r="350" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A350" s="17" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B350" s="16" t="s">
         <v>680</v>
@@ -14041,7 +14088,7 @@
     </row>
     <row r="351" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A351" s="17" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B351" s="16" t="s">
         <v>683</v>
@@ -14055,7 +14102,7 @@
     </row>
     <row r="352" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A352" s="17" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B352" s="16" t="s">
         <v>674</v>
@@ -14069,7 +14116,7 @@
     </row>
     <row r="353" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A353" s="17" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="B353" s="16" t="s">
         <v>450</v>
@@ -14083,7 +14130,7 @@
     </row>
     <row r="354" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A354" s="17" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B354" s="16" t="s">
         <v>450</v>
@@ -14097,7 +14144,7 @@
     </row>
     <row r="355" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A355" s="17" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B355" s="16" t="s">
         <v>674</v>
@@ -14111,7 +14158,7 @@
     </row>
     <row r="356" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A356" s="62" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B356" s="26" t="s">
         <v>690</v>
@@ -14125,7 +14172,7 @@
     </row>
     <row r="357" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A357" s="17" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B357" s="16" t="s">
         <v>693</v>
@@ -14139,7 +14186,7 @@
     </row>
     <row r="358" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A358" s="12" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B358" s="13"/>
       <c r="C358" s="13" t="s">
@@ -14149,7 +14196,7 @@
     </row>
     <row r="359" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A359" s="17" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B359" s="16" t="s">
         <v>697</v>
@@ -14163,7 +14210,7 @@
     </row>
     <row r="360" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A360" s="17" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B360" s="16" t="s">
         <v>700</v>
@@ -14177,7 +14224,7 @@
     </row>
     <row r="361" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A361" s="17" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="B361" s="16" t="s">
         <v>702</v>
@@ -14191,7 +14238,7 @@
     </row>
     <row r="362" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A362" s="17" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B362" s="16" t="s">
         <v>704</v>
@@ -14205,7 +14252,7 @@
     </row>
     <row r="363" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A363" s="17" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="B363" s="16" t="s">
         <v>706</v>
@@ -14219,7 +14266,7 @@
     </row>
     <row r="364" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A364" s="17" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B364" s="16" t="s">
         <v>708</v>
@@ -14233,7 +14280,7 @@
     </row>
     <row r="365" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A365" s="17" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="B365" s="16" t="s">
         <v>697</v>
@@ -14247,7 +14294,7 @@
     </row>
     <row r="366" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A366" s="17" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B366" s="16" t="s">
         <v>697</v>
@@ -14261,7 +14308,7 @@
     </row>
     <row r="367" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A367" s="17" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B367" s="16" t="s">
         <v>697</v>
@@ -14275,7 +14322,7 @@
     </row>
     <row r="368" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A368" s="17" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B368" s="16" t="s">
         <v>714</v>
@@ -14289,7 +14336,7 @@
     </row>
     <row r="369" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A369" s="17" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B369" s="16" t="s">
         <v>717</v>
@@ -14303,7 +14350,7 @@
     </row>
     <row r="370" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A370" s="17" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B370" s="16" t="s">
         <v>720</v>
@@ -14317,7 +14364,7 @@
     </row>
     <row r="371" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A371" s="17" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B371" s="16" t="s">
         <v>697</v>
@@ -14331,7 +14378,7 @@
     </row>
     <row r="372" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A372" s="17" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B372" s="16" t="s">
         <v>720</v>
@@ -14345,7 +14392,7 @@
     </row>
     <row r="373" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A373" s="17" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="B373" s="16" t="s">
         <v>725</v>
@@ -14359,7 +14406,7 @@
     </row>
     <row r="374" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A374" s="17" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B374" s="16" t="s">
         <v>728</v>
@@ -14373,7 +14420,7 @@
     </row>
     <row r="375" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A375" s="12" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="B375" s="13"/>
       <c r="C375" s="13" t="s">
@@ -14383,7 +14430,7 @@
     </row>
     <row r="376" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A376" s="17" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B376" s="16" t="s">
         <v>732</v>
@@ -14397,7 +14444,7 @@
     </row>
     <row r="377" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A377" s="17" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="B377" s="16" t="s">
         <v>714</v>
@@ -14411,7 +14458,7 @@
     </row>
     <row r="378" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A378" s="17" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B378" s="16" t="s">
         <v>736</v>
@@ -14425,7 +14472,7 @@
     </row>
     <row r="379" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A379" s="17" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B379" s="16" t="s">
         <v>739</v>
@@ -14439,7 +14486,7 @@
     </row>
     <row r="380" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A380" s="17" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B380" s="16" t="s">
         <v>739</v>
@@ -14453,7 +14500,7 @@
     </row>
     <row r="381" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A381" s="17" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B381" s="16" t="s">
         <v>743</v>
@@ -14467,7 +14514,7 @@
     </row>
     <row r="382" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A382" s="17" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B382" s="16" t="s">
         <v>746</v>
@@ -14481,7 +14528,7 @@
     </row>
     <row r="383" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A383" s="17" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="B383" s="16" t="s">
         <v>743</v>
@@ -14495,7 +14542,7 @@
     </row>
     <row r="384" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A384" s="17" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B384" s="16" t="s">
         <v>750</v>
@@ -14509,7 +14556,7 @@
     </row>
     <row r="385" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A385" s="17" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="B385" s="16" t="s">
         <v>714</v>
@@ -14523,7 +14570,7 @@
     </row>
     <row r="386" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A386" s="17" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="B386" s="16" t="s">
         <v>725</v>
@@ -14537,7 +14584,7 @@
     </row>
     <row r="387" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A387" s="17" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="B387" s="16" t="s">
         <v>725</v>
@@ -14551,7 +14598,7 @@
     </row>
     <row r="388" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A388" s="17" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="B388" s="16" t="s">
         <v>725</v>
@@ -14565,7 +14612,7 @@
     </row>
     <row r="389" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A389" s="17" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="B389" s="16" t="s">
         <v>725</v>
@@ -14579,7 +14626,7 @@
     </row>
     <row r="390" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A390" s="17" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="B390" s="16" t="s">
         <v>732</v>
@@ -14593,7 +14640,7 @@
     </row>
     <row r="391" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A391" s="12" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="B391" s="13"/>
       <c r="C391" s="13" t="s">
@@ -14603,7 +14650,7 @@
     </row>
     <row r="392" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A392" s="12" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="B392" s="13" t="s">
         <v>760</v>
@@ -14617,7 +14664,7 @@
     </row>
     <row r="393" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A393" s="12" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="B393" s="13" t="s">
         <v>763</v>
@@ -14631,7 +14678,7 @@
     </row>
     <row r="394" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A394" s="17" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="B394" s="16" t="s">
         <v>766</v>
@@ -14645,7 +14692,7 @@
     </row>
     <row r="395" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A395" s="12" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="B395" s="13" t="s">
         <v>769</v>
@@ -14659,7 +14706,7 @@
     </row>
     <row r="396" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A396" s="17" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="B396" s="16" t="s">
         <v>772</v>
@@ -14673,7 +14720,7 @@
     </row>
     <row r="397" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A397" s="17" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="B397" s="16" t="s">
         <v>772</v>
@@ -14687,7 +14734,7 @@
     </row>
     <row r="398" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A398" s="17" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B398" s="16" t="s">
         <v>772</v>
@@ -14701,7 +14748,7 @@
     </row>
     <row r="399" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A399" s="17" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="B399" s="16" t="s">
         <v>772</v>
@@ -14715,7 +14762,7 @@
     </row>
     <row r="400" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A400" s="17" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="B400" s="16" t="s">
         <v>772</v>
@@ -14729,7 +14776,7 @@
     </row>
     <row r="401" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A401" s="17" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="B401" s="16" t="s">
         <v>772</v>
@@ -14743,7 +14790,7 @@
     </row>
     <row r="402" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A402" s="17" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="B402" s="16" t="s">
         <v>772</v>
@@ -14757,7 +14804,7 @@
     </row>
     <row r="403" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A403" s="17" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="B403" s="16" t="s">
         <v>781</v>
@@ -14771,7 +14818,7 @@
     </row>
     <row r="404" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A404" s="17" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="B404" s="16" t="s">
         <v>784</v>
@@ -14785,7 +14832,7 @@
     </row>
     <row r="405" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A405" s="49" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B405" s="50" t="s">
         <v>787</v>
@@ -14799,7 +14846,7 @@
     </row>
     <row r="406" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A406" s="62" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="B406" s="26" t="s">
         <v>790</v>
@@ -14813,7 +14860,7 @@
     </row>
     <row r="407" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A407" s="17" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B407" s="16" t="s">
         <v>784</v>
@@ -14827,7 +14874,7 @@
     </row>
     <row r="408" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A408" s="12" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B408" s="13"/>
       <c r="C408" s="13" t="s">
@@ -14837,7 +14884,7 @@
     </row>
     <row r="409" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A409" s="17" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B409" s="16" t="s">
         <v>794</v>
@@ -14851,7 +14898,7 @@
     </row>
     <row r="410" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A410" s="17" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B410" s="16" t="s">
         <v>797</v>
@@ -14865,7 +14912,7 @@
     </row>
     <row r="411" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A411" s="17" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B411" s="16" t="s">
         <v>800</v>
@@ -14879,7 +14926,7 @@
     </row>
     <row r="412" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A412" s="17" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B412" s="16" t="s">
         <v>803</v>
@@ -14893,7 +14940,7 @@
     </row>
     <row r="413" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A413" s="17" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B413" s="16" t="s">
         <v>806</v>
@@ -14907,7 +14954,7 @@
     </row>
     <row r="414" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A414" s="17" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B414" s="16" t="s">
         <v>806</v>
@@ -14921,7 +14968,7 @@
     </row>
     <row r="415" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A415" s="17" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B415" s="16" t="s">
         <v>806</v>
@@ -14935,7 +14982,7 @@
     </row>
     <row r="416" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A416" s="12" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B416" s="13"/>
       <c r="C416" s="13" t="s">
@@ -14945,7 +14992,7 @@
     </row>
     <row r="417" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A417" s="12" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B417" s="13"/>
       <c r="C417" s="13" t="s">
@@ -14955,7 +15002,7 @@
     </row>
     <row r="418" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A418" s="12" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B418" s="13"/>
       <c r="C418" s="13" t="s">
@@ -14965,7 +15012,7 @@
     </row>
     <row r="419" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A419" s="12" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B419" s="13"/>
       <c r="C419" s="13" t="s">
@@ -14975,7 +15022,7 @@
     </row>
     <row r="420" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A420" s="12" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B420" s="13"/>
       <c r="C420" s="13" t="s">
@@ -14985,7 +15032,7 @@
     </row>
     <row r="421" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A421" s="17" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B421" s="16" t="s">
         <v>816</v>
@@ -14999,7 +15046,7 @@
     </row>
     <row r="422" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A422" s="17" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B422" s="16" t="s">
         <v>819</v>
@@ -15013,7 +15060,7 @@
     </row>
     <row r="423" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A423" s="17" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="B423" s="16" t="s">
         <v>822</v>
@@ -15027,7 +15074,7 @@
     </row>
     <row r="424" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A424" s="17" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B424" s="16" t="s">
         <v>822</v>
@@ -15041,7 +15088,7 @@
     </row>
     <row r="425" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A425" s="17" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B425" s="16" t="s">
         <v>822</v>
@@ -15055,7 +15102,7 @@
     </row>
     <row r="426" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A426" s="12" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B426" s="13"/>
       <c r="C426" s="13" t="s">
@@ -15065,7 +15112,7 @@
     </row>
     <row r="427" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A427" s="17" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="B427" s="16" t="s">
         <v>828</v>
@@ -15079,7 +15126,7 @@
     </row>
     <row r="428" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A428" s="17" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="B428" s="16" t="s">
         <v>831</v>
@@ -15093,7 +15140,7 @@
     </row>
     <row r="429" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A429" s="54" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B429" s="28" t="s">
         <v>834</v>
@@ -15105,7 +15152,7 @@
     </row>
     <row r="430" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A430" s="54" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="B430" s="28" t="s">
         <v>836</v>
@@ -15119,7 +15166,7 @@
     </row>
     <row r="431" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A431" s="54" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B431" s="28" t="s">
         <v>836</v>
@@ -15133,7 +15180,7 @@
     </row>
     <row r="432" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A432" s="54" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B432" s="28" t="s">
         <v>836</v>
@@ -15147,7 +15194,7 @@
     </row>
     <row r="433" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A433" s="54" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="B433" s="28" t="s">
         <v>836</v>
@@ -15161,7 +15208,7 @@
     </row>
     <row r="434" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A434" s="54" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="B434" s="28" t="s">
         <v>836</v>
@@ -15175,7 +15222,7 @@
     </row>
     <row r="435" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A435" s="17" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="B435" s="16" t="s">
         <v>843</v>
@@ -15189,7 +15236,7 @@
     </row>
     <row r="436" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A436" s="12" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="B436" s="13"/>
       <c r="C436" s="13" t="s">
@@ -15199,7 +15246,7 @@
     </row>
     <row r="437" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A437" s="12" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="B437" s="13"/>
       <c r="C437" s="13" t="s">
@@ -15209,7 +15256,7 @@
     </row>
     <row r="438" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A438" s="17" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B438" s="16" t="s">
         <v>848</v>
@@ -15223,7 +15270,7 @@
     </row>
     <row r="439" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A439" s="12" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B439" s="13"/>
       <c r="C439" s="13" t="s">
@@ -15233,7 +15280,7 @@
     </row>
     <row r="440" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A440" s="12" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B440" s="13"/>
       <c r="C440" s="13" t="s">
@@ -15243,7 +15290,7 @@
     </row>
     <row r="441" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A441" s="17" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B441" s="16" t="s">
         <v>853</v>
@@ -15257,7 +15304,7 @@
     </row>
     <row r="442" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A442" s="17" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B442" s="16" t="s">
         <v>856</v>
@@ -15271,7 +15318,7 @@
     </row>
     <row r="443" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A443" s="12" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B443" s="13"/>
       <c r="C443" s="13" t="s">
@@ -15281,7 +15328,7 @@
     </row>
     <row r="444" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A444" s="17" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B444" s="16" t="s">
         <v>192</v>
@@ -15295,7 +15342,7 @@
     </row>
     <row r="445" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A445" s="17" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B445" s="16" t="s">
         <v>861</v>
@@ -15309,7 +15356,7 @@
     </row>
     <row r="446" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A446" s="17" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="B446" s="16" t="s">
         <v>864</v>
@@ -15323,7 +15370,7 @@
     </row>
     <row r="447" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A447" s="12" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="B447" s="13"/>
       <c r="C447" s="13" t="s">
@@ -15333,7 +15380,7 @@
     </row>
     <row r="448" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A448" s="12" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="B448" s="13"/>
       <c r="C448" s="13" t="s">
@@ -15343,7 +15390,7 @@
     </row>
     <row r="449" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A449" s="12" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="B449" s="13"/>
       <c r="C449" s="13" t="s">
@@ -15353,7 +15400,7 @@
     </row>
     <row r="450" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A450" s="17" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B450" s="16" t="s">
         <v>848</v>
@@ -15367,7 +15414,7 @@
     </row>
     <row r="451" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A451" s="17" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B451" s="16" t="s">
         <v>871</v>
@@ -15381,7 +15428,7 @@
     </row>
     <row r="452" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A452" s="17" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B452" s="16" t="s">
         <v>871</v>
@@ -15395,7 +15442,7 @@
     </row>
     <row r="453" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A453" s="17" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B453" s="16" t="s">
         <v>871</v>
@@ -15409,7 +15456,7 @@
     </row>
     <row r="454" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A454" s="17" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B454" s="16" t="s">
         <v>871</v>
@@ -15423,7 +15470,7 @@
     </row>
     <row r="455" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A455" s="17" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B455" s="16" t="s">
         <v>871</v>
@@ -15437,7 +15484,7 @@
     </row>
     <row r="456" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A456" s="17" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B456" s="16" t="s">
         <v>871</v>
@@ -15451,7 +15498,7 @@
     </row>
     <row r="457" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A457" s="17" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="B457" s="16" t="s">
         <v>871</v>
@@ -15465,7 +15512,7 @@
     </row>
     <row r="458" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A458" s="17" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B458" s="16" t="s">
         <v>871</v>
@@ -15479,7 +15526,7 @@
     </row>
     <row r="459" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A459" s="17" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="B459" s="16" t="s">
         <v>871</v>
@@ -15493,7 +15540,7 @@
     </row>
     <row r="460" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A460" s="17" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B460" s="16" t="s">
         <v>871</v>
@@ -15507,7 +15554,7 @@
     </row>
     <row r="461" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A461" s="17" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B461" s="16" t="s">
         <v>883</v>
@@ -15521,7 +15568,7 @@
     </row>
     <row r="462" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A462" s="17" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B462" s="16" t="s">
         <v>883</v>
@@ -15535,7 +15582,7 @@
     </row>
     <row r="463" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A463" s="17" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B463" s="16" t="s">
         <v>883</v>
@@ -15549,7 +15596,7 @@
     </row>
     <row r="464" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A464" s="17" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B464" s="16" t="s">
         <v>883</v>
@@ -15563,7 +15610,7 @@
     </row>
     <row r="465" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A465" s="17" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B465" s="16" t="s">
         <v>883</v>
@@ -15577,7 +15624,7 @@
     </row>
     <row r="466" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A466" s="17" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="B466" s="16" t="s">
         <v>883</v>
@@ -15591,7 +15638,7 @@
     </row>
     <row r="467" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A467" s="17" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B467" s="16" t="s">
         <v>848</v>
@@ -15605,7 +15652,7 @@
     </row>
     <row r="468" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A468" s="17" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B468" s="16" t="s">
         <v>848</v>
@@ -15619,7 +15666,7 @@
     </row>
     <row r="469" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A469" s="17" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="B469" s="16" t="s">
         <v>848</v>
@@ -15633,7 +15680,7 @@
     </row>
     <row r="470" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A470" s="17" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B470" s="16" t="s">
         <v>848</v>
@@ -15647,7 +15694,7 @@
     </row>
     <row r="471" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A471" s="17" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="B471" s="16" t="s">
         <v>848</v>
@@ -15661,7 +15708,7 @@
     </row>
     <row r="472" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A472" s="17" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="B472" s="16" t="s">
         <v>848</v>
@@ -15675,7 +15722,7 @@
     </row>
     <row r="473" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A473" s="12" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="B473" s="13"/>
       <c r="C473" s="13" t="s">
@@ -15685,7 +15732,7 @@
     </row>
     <row r="474" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A474" s="17" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="B474" s="16" t="s">
         <v>898</v>
@@ -15699,7 +15746,7 @@
     </row>
     <row r="475" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A475" s="17" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="B475" s="16" t="s">
         <v>898</v>
@@ -15713,7 +15760,7 @@
     </row>
     <row r="476" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A476" s="17" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B476" s="16" t="s">
         <v>898</v>
@@ -15727,7 +15774,7 @@
     </row>
     <row r="477" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A477" s="17" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="B477" s="16" t="s">
         <v>898</v>
@@ -15741,7 +15788,7 @@
     </row>
     <row r="478" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A478" s="17" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="B478" s="16" t="s">
         <v>904</v>
@@ -15755,7 +15802,7 @@
     </row>
     <row r="479" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A479" s="54" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="B479" s="28" t="s">
         <v>904</v>
@@ -15767,10 +15814,10 @@
     </row>
     <row r="480" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A480" s="54" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B480" s="28" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="C480" s="28" t="s">
         <v>908</v>
@@ -15779,7 +15826,7 @@
     </row>
     <row r="481" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A481" s="17" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="B481" s="16" t="s">
         <v>904</v>
@@ -15793,7 +15840,7 @@
     </row>
     <row r="482" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A482" s="12" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="B482" s="13"/>
       <c r="C482" s="13" t="s">
@@ -15803,7 +15850,7 @@
     </row>
     <row r="483" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A483" s="17" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="B483" s="16" t="s">
         <v>911</v>
@@ -15817,7 +15864,7 @@
     </row>
     <row r="484" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A484" s="17" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="B484" s="16" t="s">
         <v>914</v>
@@ -15831,7 +15878,7 @@
     </row>
     <row r="485" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A485" s="17" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="B485" s="16" t="s">
         <v>917</v>
@@ -15845,7 +15892,7 @@
     </row>
     <row r="486" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A486" s="17" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B486" s="16" t="s">
         <v>920</v>
@@ -15859,7 +15906,7 @@
     </row>
     <row r="487" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A487" s="17" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="B487" s="16" t="s">
         <v>923</v>
@@ -15873,7 +15920,7 @@
     </row>
     <row r="488" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A488" s="12" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="B488" s="13"/>
       <c r="C488" s="13" t="s">
@@ -15883,7 +15930,7 @@
     </row>
     <row r="489" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A489" s="17" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="B489" s="16" t="s">
         <v>904</v>
@@ -15897,7 +15944,7 @@
     </row>
     <row r="490" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A490" s="77" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="B490" s="78"/>
       <c r="C490" s="78" t="s">
@@ -15907,7 +15954,7 @@
     </row>
     <row r="491" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A491" s="78" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="B491" s="78"/>
       <c r="C491" s="78" t="s">
@@ -15917,7 +15964,7 @@
     </row>
     <row r="492" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A492" s="81" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="B492" s="81" t="s">
         <v>930</v>
@@ -15931,7 +15978,7 @@
     </row>
     <row r="493" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A493" s="81" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="B493" s="81" t="s">
         <v>933</v>
@@ -15945,7 +15992,7 @@
     </row>
     <row r="494" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A494" s="86" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="B494" s="86" t="s">
         <v>936</v>
@@ -15959,7 +16006,7 @@
     </row>
     <row r="495" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A495" s="25" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B495" s="25" t="s">
         <v>939</v>
@@ -15973,7 +16020,7 @@
     </row>
     <row r="496" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A496" s="86" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="B496" s="86" t="s">
         <v>743</v>
@@ -15987,7 +16034,7 @@
     </row>
     <row r="497" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A497" s="25" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="B497" s="25" t="s">
         <v>942</v>
@@ -16001,7 +16048,7 @@
     </row>
     <row r="498" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A498" s="81" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="B498" s="81" t="s">
         <v>936</v>
@@ -16015,7 +16062,7 @@
     </row>
     <row r="499" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A499" s="78" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B499" s="78" t="s">
         <v>945</v>
@@ -16029,7 +16076,7 @@
     </row>
     <row r="500" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A500" s="81" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="B500" s="81" t="s">
         <v>948</v>
@@ -16043,7 +16090,7 @@
     </row>
     <row r="501" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A501" s="77" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="B501" s="78"/>
       <c r="C501" s="78" t="s">
@@ -16055,7 +16102,7 @@
     </row>
     <row r="502" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A502" s="77" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="B502" s="78"/>
       <c r="C502" s="78" t="s">
@@ -16067,7 +16114,7 @@
     </row>
     <row r="503" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A503" s="77" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="B503" s="78"/>
       <c r="C503" s="78" t="s">
@@ -16079,7 +16126,7 @@
     </row>
     <row r="504" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A504" s="77" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="B504" s="78"/>
       <c r="C504" s="78" t="s">
@@ -16091,7 +16138,7 @@
     </row>
     <row r="505" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A505" s="77" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="B505" s="78"/>
       <c r="C505" s="78" t="s">
@@ -16103,7 +16150,7 @@
     </row>
     <row r="506" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A506" s="77" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B506" s="78"/>
       <c r="C506" s="78" t="s">
@@ -16115,7 +16162,7 @@
     </row>
     <row r="507" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A507" s="87" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B507" s="88" t="s">
         <v>958</v>
@@ -16129,7 +16176,7 @@
     </row>
     <row r="508" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A508" s="52" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B508" s="25" t="s">
         <v>961</v>
@@ -16143,7 +16190,7 @@
     </row>
     <row r="509" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A509" s="87" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B509" s="88" t="s">
         <v>930</v>
@@ -16157,7 +16204,7 @@
     </row>
     <row r="510" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A510" s="52" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B510" s="25" t="s">
         <v>936</v>
@@ -16171,7 +16218,7 @@
     </row>
     <row r="511" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A511" s="12" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="B511" s="13"/>
       <c r="C511" s="13" t="s">
@@ -16181,7 +16228,7 @@
     </row>
     <row r="512" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A512" s="12" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="B512" s="13"/>
       <c r="C512" s="13" t="s">
@@ -16191,7 +16238,7 @@
     </row>
     <row r="513" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A513" s="17" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="B513" s="16" t="s">
         <v>966</v>
@@ -16205,7 +16252,7 @@
     </row>
     <row r="514" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A514" s="12" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="B514" s="13"/>
       <c r="C514" s="13" t="s">
@@ -16215,7 +16262,7 @@
     </row>
     <row r="515" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A515" s="12" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="B515" s="13"/>
       <c r="C515" s="13" t="s">
@@ -16225,7 +16272,7 @@
     </row>
     <row r="516" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A516" s="17" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="B516" s="16" t="s">
         <v>966</v>
@@ -16239,7 +16286,7 @@
     </row>
     <row r="517" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A517" s="17" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="B517" s="16" t="s">
         <v>966</v>
@@ -16253,7 +16300,7 @@
     </row>
     <row r="518" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A518" s="17" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="B518" s="16" t="s">
         <v>966</v>
@@ -16267,7 +16314,7 @@
     </row>
     <row r="519" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A519" s="17" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="B519" s="16" t="s">
         <v>966</v>
@@ -16281,7 +16328,7 @@
     </row>
     <row r="520" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A520" s="17" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="B520" s="16" t="s">
         <v>966</v>
@@ -16295,7 +16342,7 @@
     </row>
     <row r="521" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A521" s="17" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="B521" s="16" t="s">
         <v>567</v>
@@ -16309,7 +16356,7 @@
     </row>
     <row r="522" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A522" s="17" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="B522" s="16" t="s">
         <v>567</v>
@@ -16323,7 +16370,7 @@
     </row>
     <row r="523" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A523" s="17" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="B523" s="16" t="s">
         <v>567</v>
@@ -16337,7 +16384,7 @@
     </row>
     <row r="524" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A524" s="17" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="B524" s="16"/>
       <c r="C524" s="16" t="s">
@@ -16347,7 +16394,7 @@
     </row>
     <row r="525" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A525" s="17" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B525" s="16"/>
       <c r="C525" s="16" t="s">
@@ -16357,7 +16404,7 @@
     </row>
     <row r="526" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A526" s="17" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="B526" s="16"/>
       <c r="C526" s="16" t="s">
@@ -16367,7 +16414,7 @@
     </row>
     <row r="527" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A527" s="17" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B527" s="16"/>
       <c r="C527" s="16" t="s">
@@ -16377,7 +16424,7 @@
     </row>
     <row r="528" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A528" s="12" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="B528" s="13"/>
       <c r="C528" s="13" t="s">
@@ -16387,7 +16434,7 @@
     </row>
     <row r="529" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A529" s="17" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="B529" s="16"/>
       <c r="C529" s="16" t="s">
@@ -16397,7 +16444,7 @@
     </row>
     <row r="530" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A530" s="17" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="B530" s="16"/>
       <c r="C530" s="16" t="s">
@@ -16407,7 +16454,7 @@
     </row>
     <row r="531" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A531" s="17" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="B531" s="16"/>
       <c r="C531" s="16" t="s">
@@ -16417,7 +16464,7 @@
     </row>
     <row r="532" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A532" s="17" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="B532" s="16"/>
       <c r="C532" s="16" t="s">
@@ -16427,7 +16474,7 @@
     </row>
     <row r="533" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A533" s="17" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B533" s="16"/>
       <c r="C533" s="16" t="s">
@@ -16437,7 +16484,7 @@
     </row>
     <row r="534" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A534" s="17" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="B534" s="16"/>
       <c r="C534" s="16" t="s">
@@ -16447,7 +16494,7 @@
     </row>
     <row r="535" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A535" s="17" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="B535" s="16"/>
       <c r="C535" s="16" t="s">
@@ -16457,7 +16504,7 @@
     </row>
     <row r="536" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A536" s="17" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="B536" s="16"/>
       <c r="C536" s="16" t="s">
@@ -16467,7 +16514,7 @@
     </row>
     <row r="537" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A537" s="19" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="B537" s="20" t="s">
         <v>904</v>
@@ -16499,10 +16546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView topLeftCell="B102" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16890,7 +16937,7 @@
     </row>
     <row r="38" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>930</v>
@@ -16978,7 +17025,7 @@
     </row>
     <row r="46" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="25" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B46" s="55" t="s">
         <v>1070</v>
@@ -17099,7 +17146,7 @@
     </row>
     <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="56" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="B57" s="57" t="s">
         <v>197</v>
@@ -17308,7 +17355,7 @@
     </row>
     <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="62" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>787</v>
@@ -17319,7 +17366,7 @@
     </row>
     <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="62" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>787</v>
@@ -17528,7 +17575,7 @@
     </row>
     <row r="96" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="56" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="B96" s="57" t="s">
         <v>197</v>
@@ -17735,141 +17782,141 @@
         <v>658</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="17" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>966</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>968</v>
+    <row r="115" spans="1:3" s="111" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="112" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B115" s="113" t="s">
+        <v>871</v>
+      </c>
+      <c r="C115" s="114" t="s">
+        <v>2650</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="17" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>567</v>
+        <v>966</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>569</v>
+        <v>968</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A118" s="17" t="s">
         <v>1218</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B118" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C118" s="18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="54" t="s">
-        <v>2648</v>
-      </c>
-      <c r="B118" s="28" t="s">
+    <row r="119" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A119" s="54" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B119" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C119" s="29" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="17" t="s">
+    <row r="120" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A120" s="17" t="s">
         <v>1219</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B120" s="16" t="s">
         <v>1220</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C120" s="18" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="49" t="s">
+    <row r="121" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A121" s="49" t="s">
         <v>1222</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B121" s="50" t="s">
         <v>1223</v>
       </c>
-      <c r="C120" s="51" t="s">
+      <c r="C121" s="51" t="s">
         <v>1224</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="66" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B121" s="67" t="s">
-        <v>787</v>
-      </c>
-      <c r="C121" s="68" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="66" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B122" s="67" t="s">
-        <v>1132</v>
+        <v>787</v>
       </c>
       <c r="C122" s="68" t="s">
-        <v>1227</v>
+        <v>789</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="66" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B123" s="67" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C123" s="68" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="66" t="s">
         <v>1228</v>
       </c>
-      <c r="B123" s="67" t="s">
+      <c r="B124" s="67" t="s">
         <v>1135</v>
       </c>
-      <c r="C123" s="68" t="s">
+      <c r="C124" s="68" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="69" t="s">
+    <row r="125" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="69" t="s">
         <v>1230</v>
       </c>
-      <c r="B124" s="70" t="s">
+      <c r="B125" s="70" t="s">
         <v>1062</v>
       </c>
-      <c r="C124" s="71" t="s">
+      <c r="C125" s="71" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="72" t="s">
+    <row r="126" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A126" s="72" t="s">
         <v>1232</v>
       </c>
-      <c r="B125" s="73" t="s">
+      <c r="B126" s="73" t="s">
         <v>708</v>
       </c>
-      <c r="C125" s="74" t="s">
+      <c r="C126" s="74" t="s">
         <v>1233</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="12" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>1055</v>
@@ -17879,19 +17926,19 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="49" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B128" s="50" t="s">
+      <c r="A128" s="12" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>1055</v>
       </c>
-      <c r="C128" s="51" t="s">
+      <c r="C128" s="14" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="49" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B129" s="50" t="s">
         <v>1055</v>
@@ -17902,7 +17949,7 @@
     </row>
     <row r="130" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="49" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B130" s="50" t="s">
         <v>1055</v>
@@ -17913,7 +17960,7 @@
     </row>
     <row r="131" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="49" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B131" s="50" t="s">
         <v>1055</v>
@@ -17924,7 +17971,7 @@
     </row>
     <row r="132" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="49" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B132" s="50" t="s">
         <v>1055</v>
@@ -17935,7 +17982,7 @@
     </row>
     <row r="133" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="49" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B133" s="50" t="s">
         <v>1055</v>
@@ -17946,7 +17993,7 @@
     </row>
     <row r="134" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="49" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B134" s="50" t="s">
         <v>1055</v>
@@ -17956,32 +18003,43 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="69" t="s">
+      <c r="A135" s="49" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B135" s="50" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C135" s="51" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="69" t="s">
         <v>1243</v>
       </c>
-      <c r="B135" s="70" t="s">
+      <c r="B136" s="70" t="s">
         <v>787</v>
       </c>
-      <c r="C135" s="71" t="s">
+      <c r="C136" s="71" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="19" t="s">
+    <row r="137" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A137" s="19" t="s">
         <v>1244</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="B137" s="20" t="s">
         <v>725</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C137" s="21" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="137" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="138" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="139" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="140" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A9:C139" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A9:C140" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -20380,10 +20438,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -20483,807 +20541,829 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="110" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="111" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="115" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>690</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="24" t="s">
         <v>1811</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B14" s="24" t="s">
         <v>920</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="24" t="s">
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>1813</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C15" s="24" t="s">
         <v>1814</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>1817</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="25" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>1821</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="C19" s="25" t="s">
         <v>1822</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>690</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>594</v>
+        <v>690</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>594</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="23" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>966</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>1837</v>
+      <c r="A23" s="23" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="24" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="24" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="24" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="24" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>1838</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="C26" s="24" t="s">
         <v>1839</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="24" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>1851</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>822</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="26" t="s">
-        <v>1853</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="26" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="26" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="26" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="26" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="26" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="26" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="26" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="26" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="26" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="26" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="26" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="26" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="26" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="26" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>904</v>
+        <v>1889</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1245</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="26" t="s">
-        <v>2639</v>
+        <v>1894</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1899</v>
+        <v>904</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1900</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>1904</v>
+        <v>2637</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="26" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="27" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>1912</v>
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="26" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>1905</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="26" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="27" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="26" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>904</v>
+      </c>
+      <c r="C54" s="26" t="s">
         <v>1913</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>904</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="24" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="24" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="24" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="24" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="24" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="24" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="24" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="B59" s="24" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>1925</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="24" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="24" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="24" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>1930</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="24" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="24" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="24" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="B65" s="24" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>1935</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="24" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="24" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="24" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>1940</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>1940</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="24" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="24" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="B72" s="24" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>1946</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>1946</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="24" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="B76" s="24" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>1952</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="24" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>1952</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="24" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="B78" s="24" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>1952</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="24" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>1952</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="24" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1960</v>
+        <v>1951</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="24" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1960</v>
+        <v>1951</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="24" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>1960</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="24" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="B83" s="24" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>1960</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="24" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>784</v>
+        <v>1959</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1966</v>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="24" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="24" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>1964</v>
       </c>
     </row>
   </sheetData>
@@ -21299,6 +21379,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21360,7 +21441,7 @@
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B7" s="104"/>
       <c r="C7" s="105"/>
@@ -21385,596 +21466,596 @@
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="9" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>1968</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="12" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>1971</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="12" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>1974</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="12" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>1977</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>1979</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="12" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>1980</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>1981</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="12" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>1983</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>1984</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="12" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>1986</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>1987</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="12" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>1989</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>1990</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="12" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>1992</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>1993</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="12" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>1995</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="12" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>1998</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>1999</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="12" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>2001</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="12" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>2004</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="12" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>2007</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>2008</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>2009</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="12" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>2010</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="12" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>2013</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="12" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>2016</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="12" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>2019</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>2020</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="12" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>2022</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>2023</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="12" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>2025</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>2026</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="12" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>2028</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>2029</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="12" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>2031</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>2032</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="12" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>2034</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="13" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>2037</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>2038</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="15" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>2040</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>2041</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="15" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>2043</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="15" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>2046</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>2047</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="15" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>2049</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="15" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>2052</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="15" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>2055</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="15" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>2058</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>2059</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>2060</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="15" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>2061</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>2062</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="16" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>2064</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="16" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="17" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="17" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="17" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
     </row>
   </sheetData>
@@ -22009,7 +22090,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="100" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="102"/>
@@ -22044,7 +22125,7 @@
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="103" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B6" s="104"/>
       <c r="C6" s="105"/>
@@ -22069,13 +22150,13 @@
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="90" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C9" s="90" t="s">
         <v>2641</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>2642</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>2643</v>
       </c>
     </row>
   </sheetData>

--- a/conf/excel/C_POI.xlsx
+++ b/conf/excel/C_POI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C6149F-B679-4F7A-BAC2-3B8550C7AF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A3DEC9-E1C2-48D7-9E0C-6BB75303385F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11775" yWindow="3270" windowWidth="23580" windowHeight="10035" tabRatio="763" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11775" yWindow="2250" windowWidth="23580" windowHeight="10035" tabRatio="763" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_POI.conf" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="2661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="2664">
   <si>
     <t>#</t>
   </si>
@@ -8179,6 +8179,15 @@
   <si>
     <t>belong_max_aoi_id != 9764333117472501670</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:=^(瑜伽|母婴)室[0-9]+$</t>
+  </si>
+  <si>
+    <t>catalog=01FFFFXX</t>
+  </si>
+  <si>
+    <t>无效室内点</t>
   </si>
 </sst>
 </file>
@@ -9034,6 +9043,9 @@
     <xf numFmtId="49" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9090,9 +9102,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9385,68 +9394,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="75" t="s">
@@ -16599,18 +16608,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>993</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -16627,25 +16636,25 @@
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>994</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>995</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>996</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -18139,60 +18148,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>1242</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>1243</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>995</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>996</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="39" t="s">
@@ -19941,60 +19950,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>1665</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>1666</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>995</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>1667</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="112"/>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="30" t="s">
@@ -20512,8 +20521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -20525,60 +20534,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>1798</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>1799</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>995</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>1800</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="112"/>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="22" t="s">
@@ -20624,37 +20633,37 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="92" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="96" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B13" s="96" t="s">
-        <v>690</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>1819</v>
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="24" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>920</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>1806</v>
+        <v>2646</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>920</v>
+        <v>1808</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>2646</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C15" s="24" t="s">
         <v>1809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="92" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="96" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>2663</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -21470,60 +21479,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>1798</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>1799</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>995</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>1960</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="112"/>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -22150,7 +22159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -22161,53 +22170,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>2631</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>1799</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>995</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>1960</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="112"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="30" t="s">
@@ -22243,13 +22252,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="33">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="97" t="s">
         <v>2660</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="97" t="s">
         <v>2633</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="97" t="s">
         <v>2634</v>
       </c>
     </row>
